--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Reeves.042921.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Reeves.042921.xlsx_with_dialog_acts.xlsx
@@ -585,12 +585,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1459,12 +1459,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1763,12 +1763,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1839,12 +1839,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2257,12 +2257,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2599,12 +2599,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2827,12 +2827,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3169,12 +3169,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3549,12 +3549,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3587,12 +3587,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3625,12 +3625,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3819,12 +3819,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4013,12 +4013,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4051,12 +4051,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4283,12 +4283,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4595,12 +4595,12 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4785,12 +4785,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4975,12 +4975,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5013,12 +5013,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6455,12 +6455,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6497,12 +6497,12 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6647,12 +6647,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7179,12 +7179,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7565,12 +7565,12 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7641,12 +7641,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8291,12 +8291,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8481,12 +8481,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8557,12 +8557,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8709,12 +8709,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9051,12 +9051,12 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9587,12 +9587,12 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10419,12 +10419,12 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10457,12 +10457,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11837,12 +11837,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11989,12 +11989,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -12633,12 +12633,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -13703,12 +13703,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13817,12 +13817,12 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13931,12 +13931,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14653,12 +14653,12 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14881,12 +14881,12 @@
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15071,12 +15071,12 @@
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15223,12 +15223,12 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15603,12 +15603,12 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15641,12 +15641,12 @@
       <c r="H399" t="inlineStr"/>
       <c r="I399" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16097,12 +16097,12 @@
       <c r="H411" t="inlineStr"/>
       <c r="I411" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16591,12 +16591,12 @@
       <c r="H424" t="inlineStr"/>
       <c r="I424" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17617,12 +17617,12 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17769,12 +17769,12 @@
       <c r="H455" t="inlineStr"/>
       <c r="I455" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18643,12 +18643,12 @@
       <c r="H478" t="inlineStr"/>
       <c r="I478" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18719,12 +18719,12 @@
       <c r="H480" t="inlineStr"/>
       <c r="I480" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18871,12 +18871,12 @@
       <c r="H484" t="inlineStr"/>
       <c r="I484" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19023,12 +19023,12 @@
       <c r="H488" t="inlineStr"/>
       <c r="I488" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19061,12 +19061,12 @@
       <c r="H489" t="inlineStr"/>
       <c r="I489" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19707,12 +19707,12 @@
       <c r="H506" t="inlineStr"/>
       <c r="I506" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19783,12 +19783,12 @@
       <c r="H508" t="inlineStr"/>
       <c r="I508" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19897,12 +19897,12 @@
       <c r="H511" t="inlineStr"/>
       <c r="I511" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20467,12 +20467,12 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20505,12 +20505,12 @@
       <c r="H527" t="inlineStr"/>
       <c r="I527" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21113,12 +21113,12 @@
       <c r="H543" t="inlineStr"/>
       <c r="I543" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21151,12 +21151,12 @@
       <c r="H544" t="inlineStr"/>
       <c r="I544" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21189,12 +21189,12 @@
       <c r="H545" t="inlineStr"/>
       <c r="I545" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>fc</t>
         </is>
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Conventional-closing</t>
         </is>
       </c>
     </row>
@@ -21265,12 +21265,12 @@
       <c r="H547" t="inlineStr"/>
       <c r="I547" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21303,12 +21303,12 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21341,12 +21341,12 @@
       <c r="H549" t="inlineStr"/>
       <c r="I549" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21759,12 +21759,12 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
